--- a/data/v23.xlsx
+++ b/data/v23.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="7">
   <si>
     <t>Vaka</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Ölüm</t>
+  </si>
+  <si>
+    <t>Günlük</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,7 +381,7 @@
     <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -388,8 +391,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -399,8 +405,11 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -410,8 +419,11 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -421,8 +433,11 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -432,8 +447,11 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -443,8 +461,11 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -454,8 +475,11 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -465,8 +489,11 @@
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -476,8 +503,11 @@
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -487,8 +517,11 @@
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -498,8 +531,11 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -509,8 +545,11 @@
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -520,8 +559,11 @@
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -531,8 +573,11 @@
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -542,8 +587,11 @@
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -553,8 +601,11 @@
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -564,8 +615,11 @@
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -575,8 +629,11 @@
       <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -586,8 +643,11 @@
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -597,8 +657,11 @@
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -608,8 +671,11 @@
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -619,8 +685,11 @@
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -630,8 +699,11 @@
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -641,8 +713,11 @@
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -652,8 +727,11 @@
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -663,8 +741,11 @@
       <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -674,8 +755,11 @@
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -685,8 +769,11 @@
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -696,8 +783,11 @@
       <c r="C29" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -707,8 +797,11 @@
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -718,8 +811,11 @@
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -729,8 +825,11 @@
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -740,8 +839,11 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -751,8 +853,11 @@
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="1">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -762,8 +867,11 @@
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="1">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -773,8 +881,11 @@
       <c r="C36" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="1">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -784,8 +895,11 @@
       <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="1">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -795,8 +909,11 @@
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="1">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -806,8 +923,11 @@
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="1">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -817,8 +937,11 @@
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="1">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -828,8 +951,11 @@
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="1">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -839,8 +965,11 @@
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="1">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -850,8 +979,11 @@
       <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="1">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -861,8 +993,11 @@
       <c r="C44" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="1">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -872,8 +1007,11 @@
       <c r="C45" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="1">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -883,8 +1021,11 @@
       <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="1">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -894,8 +1035,11 @@
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="1">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -905,8 +1049,11 @@
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="1">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -916,8 +1063,11 @@
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="1">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -927,8 +1077,11 @@
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="1">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -938,8 +1091,11 @@
       <c r="C51" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="1">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -949,8 +1105,11 @@
       <c r="C52" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="1">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -960,8 +1119,11 @@
       <c r="C53" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="1">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -971,8 +1133,11 @@
       <c r="C54" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="1">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -982,8 +1147,11 @@
       <c r="C55" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="1">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -993,8 +1161,11 @@
       <c r="C56" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1004,8 +1175,11 @@
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="1">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1015,8 +1189,11 @@
       <c r="C58" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="1">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1026,8 +1203,11 @@
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="1">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1037,8 +1217,11 @@
       <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="1">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1048,8 +1231,11 @@
       <c r="C61" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="1">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1059,8 +1245,11 @@
       <c r="C62" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="1">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1070,8 +1259,11 @@
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1081,8 +1273,11 @@
       <c r="C64" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="1">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1092,8 +1287,11 @@
       <c r="C65" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="1">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1103,8 +1301,11 @@
       <c r="C66" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="1">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1114,8 +1315,11 @@
       <c r="C67" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="1">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1125,8 +1329,11 @@
       <c r="C68" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1136,8 +1343,11 @@
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="1">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1147,8 +1357,11 @@
       <c r="C70" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="1">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1158,8 +1371,11 @@
       <c r="C71" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="1">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1169,8 +1385,11 @@
       <c r="C72" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1180,8 +1399,11 @@
       <c r="C73" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -1191,8 +1413,11 @@
       <c r="C74" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -1202,8 +1427,11 @@
       <c r="C75" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -1213,8 +1441,11 @@
       <c r="C76" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -1224,8 +1455,11 @@
       <c r="C77" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -1235,8 +1469,11 @@
       <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>6</v>
       </c>
@@ -1246,8 +1483,11 @@
       <c r="C79" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -1257,8 +1497,11 @@
       <c r="C80" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -1268,8 +1511,11 @@
       <c r="C81" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -1279,8 +1525,11 @@
       <c r="C82" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>10</v>
       </c>
@@ -1290,8 +1539,11 @@
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>11</v>
       </c>
@@ -1301,8 +1553,11 @@
       <c r="C84" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>12</v>
       </c>
@@ -1312,8 +1567,11 @@
       <c r="C85" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -1323,8 +1581,11 @@
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -1334,8 +1595,11 @@
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>15</v>
       </c>
@@ -1345,8 +1609,11 @@
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>16</v>
       </c>
@@ -1356,8 +1623,11 @@
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>17</v>
       </c>
@@ -1367,8 +1637,11 @@
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>18</v>
       </c>
@@ -1378,8 +1651,11 @@
       <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>19</v>
       </c>
@@ -1389,8 +1665,11 @@
       <c r="C92" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>20</v>
       </c>
@@ -1400,8 +1679,11 @@
       <c r="C93" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>21</v>
       </c>
@@ -1411,8 +1693,11 @@
       <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>22</v>
       </c>
@@ -1422,8 +1707,11 @@
       <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -1433,8 +1721,11 @@
       <c r="C96" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -1444,8 +1735,11 @@
       <c r="C97" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>25</v>
       </c>
@@ -1455,8 +1749,11 @@
       <c r="C98" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -1466,8 +1763,11 @@
       <c r="C99" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -1477,8 +1777,11 @@
       <c r="C100" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>28</v>
       </c>
@@ -1488,8 +1791,11 @@
       <c r="C101" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>29</v>
       </c>
@@ -1499,8 +1805,11 @@
       <c r="C102" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>30</v>
       </c>
@@ -1510,8 +1819,11 @@
       <c r="C103" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>31</v>
       </c>
@@ -1521,8 +1833,11 @@
       <c r="C104" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>32</v>
       </c>
@@ -1532,8 +1847,11 @@
       <c r="C105" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>33</v>
       </c>
@@ -1543,8 +1861,11 @@
       <c r="C106" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>34</v>
       </c>
@@ -1554,8 +1875,11 @@
       <c r="C107" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>35</v>
       </c>
@@ -1565,8 +1889,11 @@
       <c r="C108" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>36</v>
       </c>
@@ -1576,8 +1903,11 @@
       <c r="C109" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>37</v>
       </c>
@@ -1587,8 +1917,11 @@
       <c r="C110" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>38</v>
       </c>
@@ -1598,8 +1931,11 @@
       <c r="C111" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="1">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>39</v>
       </c>
@@ -1609,8 +1945,11 @@
       <c r="C112" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>40</v>
       </c>
@@ -1620,8 +1959,11 @@
       <c r="C113" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="1">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>41</v>
       </c>
@@ -1631,8 +1973,11 @@
       <c r="C114" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="1">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>42</v>
       </c>
@@ -1642,8 +1987,11 @@
       <c r="C115" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="1">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>43</v>
       </c>
@@ -1653,8 +2001,11 @@
       <c r="C116" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="1">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>44</v>
       </c>
@@ -1664,8 +2015,11 @@
       <c r="C117" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>45</v>
       </c>
@@ -1675,8 +2029,11 @@
       <c r="C118" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>46</v>
       </c>
@@ -1686,8 +2043,11 @@
       <c r="C119" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="1">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -1697,8 +2057,11 @@
       <c r="C120" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="1">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>48</v>
       </c>
@@ -1708,8 +2071,11 @@
       <c r="C121" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="1">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>49</v>
       </c>
@@ -1719,8 +2085,11 @@
       <c r="C122" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="1">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>50</v>
       </c>
@@ -1730,8 +2099,11 @@
       <c r="C123" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="1">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>51</v>
       </c>
@@ -1741,8 +2113,11 @@
       <c r="C124" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="1">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>52</v>
       </c>
@@ -1752,8 +2127,11 @@
       <c r="C125" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="1">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>53</v>
       </c>
@@ -1763,8 +2141,11 @@
       <c r="C126" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="1">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>54</v>
       </c>
@@ -1774,8 +2155,11 @@
       <c r="C127" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="1">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>55</v>
       </c>
@@ -1785,8 +2169,11 @@
       <c r="C128" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="1">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>56</v>
       </c>
@@ -1796,8 +2183,11 @@
       <c r="C129" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="1">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>57</v>
       </c>
@@ -1807,8 +2197,11 @@
       <c r="C130" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="1">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>58</v>
       </c>
@@ -1818,8 +2211,11 @@
       <c r="C131" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="1">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>59</v>
       </c>
@@ -1829,8 +2225,11 @@
       <c r="C132" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="1">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>60</v>
       </c>
@@ -1840,8 +2239,11 @@
       <c r="C133" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="1">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>61</v>
       </c>
@@ -1851,8 +2253,11 @@
       <c r="C134" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="1">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>62</v>
       </c>
@@ -1862,8 +2267,11 @@
       <c r="C135" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="1">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>63</v>
       </c>
@@ -1873,8 +2281,11 @@
       <c r="C136" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="1">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>64</v>
       </c>
@@ -1884,8 +2295,11 @@
       <c r="C137" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="1">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>65</v>
       </c>
@@ -1895,8 +2309,11 @@
       <c r="C138" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="1">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>66</v>
       </c>
@@ -1906,8 +2323,11 @@
       <c r="C139" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="1">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>67</v>
       </c>
@@ -1917,8 +2337,11 @@
       <c r="C140" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="1">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>68</v>
       </c>
@@ -1928,8 +2351,11 @@
       <c r="C141" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>69</v>
       </c>
@@ -1939,8 +2365,11 @@
       <c r="C142" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>70</v>
       </c>
@@ -1950,8 +2379,11 @@
       <c r="C143" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="1">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>71</v>
       </c>
@@ -1961,8 +2393,11 @@
       <c r="C144" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="1">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>72</v>
       </c>
@@ -1972,8 +2407,11 @@
       <c r="C145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="1">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -1983,8 +2421,11 @@
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -1994,8 +2435,11 @@
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>3</v>
       </c>
@@ -2005,8 +2449,11 @@
       <c r="C148" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>4</v>
       </c>
@@ -2016,8 +2463,11 @@
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>5</v>
       </c>
@@ -2027,8 +2477,11 @@
       <c r="C150" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>6</v>
       </c>
@@ -2038,8 +2491,11 @@
       <c r="C151" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>7</v>
       </c>
@@ -2049,8 +2505,11 @@
       <c r="C152" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>8</v>
       </c>
@@ -2060,8 +2519,11 @@
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>9</v>
       </c>
@@ -2071,8 +2533,11 @@
       <c r="C154" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>10</v>
       </c>
@@ -2082,8 +2547,11 @@
       <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>11</v>
       </c>
@@ -2093,8 +2561,11 @@
       <c r="C156" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>12</v>
       </c>
@@ -2104,8 +2575,11 @@
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>13</v>
       </c>
@@ -2115,8 +2589,11 @@
       <c r="C158" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>14</v>
       </c>
@@ -2126,8 +2603,11 @@
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>15</v>
       </c>
@@ -2137,8 +2617,11 @@
       <c r="C160" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>16</v>
       </c>
@@ -2148,8 +2631,11 @@
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>17</v>
       </c>
@@ -2159,8 +2645,11 @@
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>18</v>
       </c>
@@ -2170,8 +2659,11 @@
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>19</v>
       </c>
@@ -2181,8 +2673,11 @@
       <c r="C164" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>20</v>
       </c>
@@ -2192,8 +2687,11 @@
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>21</v>
       </c>
@@ -2203,8 +2701,11 @@
       <c r="C166" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>22</v>
       </c>
@@ -2214,8 +2715,11 @@
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>23</v>
       </c>
@@ -2225,8 +2729,11 @@
       <c r="C168" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>24</v>
       </c>
@@ -2236,8 +2743,11 @@
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>25</v>
       </c>
@@ -2247,8 +2757,11 @@
       <c r="C170" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>26</v>
       </c>
@@ -2258,8 +2771,11 @@
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>27</v>
       </c>
@@ -2269,8 +2785,11 @@
       <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>28</v>
       </c>
@@ -2280,8 +2799,11 @@
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>29</v>
       </c>
@@ -2291,8 +2813,11 @@
       <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>30</v>
       </c>
@@ -2302,8 +2827,11 @@
       <c r="C175" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>31</v>
       </c>
@@ -2313,8 +2841,11 @@
       <c r="C176" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>32</v>
       </c>
@@ -2324,8 +2855,11 @@
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>33</v>
       </c>
@@ -2335,8 +2869,11 @@
       <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>34</v>
       </c>
@@ -2346,8 +2883,11 @@
       <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>35</v>
       </c>
@@ -2357,8 +2897,11 @@
       <c r="C180" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>36</v>
       </c>
@@ -2368,8 +2911,11 @@
       <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>37</v>
       </c>
@@ -2379,8 +2925,11 @@
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>38</v>
       </c>
@@ -2390,8 +2939,11 @@
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>39</v>
       </c>
@@ -2401,8 +2953,11 @@
       <c r="C184" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>40</v>
       </c>
@@ -2412,8 +2967,11 @@
       <c r="C185" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>41</v>
       </c>
@@ -2423,8 +2981,11 @@
       <c r="C186" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>42</v>
       </c>
@@ -2434,8 +2995,11 @@
       <c r="C187" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>43</v>
       </c>
@@ -2445,8 +3009,11 @@
       <c r="C188" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>44</v>
       </c>
@@ -2456,8 +3023,11 @@
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>45</v>
       </c>
@@ -2467,8 +3037,11 @@
       <c r="C190" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>46</v>
       </c>
@@ -2478,8 +3051,11 @@
       <c r="C191" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>47</v>
       </c>
@@ -2489,8 +3065,11 @@
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>48</v>
       </c>
@@ -2500,8 +3079,11 @@
       <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>49</v>
       </c>
@@ -2511,8 +3093,11 @@
       <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>50</v>
       </c>
@@ -2522,8 +3107,11 @@
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>51</v>
       </c>
@@ -2533,8 +3121,11 @@
       <c r="C196" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>52</v>
       </c>
@@ -2544,8 +3135,11 @@
       <c r="C197" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>53</v>
       </c>
@@ -2555,8 +3149,11 @@
       <c r="C198" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>54</v>
       </c>
@@ -2566,8 +3163,11 @@
       <c r="C199" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>55</v>
       </c>
@@ -2577,8 +3177,11 @@
       <c r="C200" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>56</v>
       </c>
@@ -2588,8 +3191,11 @@
       <c r="C201" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>57</v>
       </c>
@@ -2599,8 +3205,11 @@
       <c r="C202" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>58</v>
       </c>
@@ -2610,8 +3219,11 @@
       <c r="C203" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>59</v>
       </c>
@@ -2621,8 +3233,11 @@
       <c r="C204" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>60</v>
       </c>
@@ -2632,8 +3247,11 @@
       <c r="C205" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>61</v>
       </c>
@@ -2643,8 +3261,11 @@
       <c r="C206" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>62</v>
       </c>
@@ -2654,8 +3275,11 @@
       <c r="C207" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>63</v>
       </c>
@@ -2665,8 +3289,11 @@
       <c r="C208" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>64</v>
       </c>
@@ -2676,8 +3303,11 @@
       <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>65</v>
       </c>
@@ -2687,8 +3317,11 @@
       <c r="C210" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>66</v>
       </c>
@@ -2698,8 +3331,11 @@
       <c r="C211" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>67</v>
       </c>
@@ -2709,8 +3345,11 @@
       <c r="C212" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>68</v>
       </c>
@@ -2720,8 +3359,11 @@
       <c r="C213" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>69</v>
       </c>
@@ -2731,8 +3373,11 @@
       <c r="C214" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>70</v>
       </c>
@@ -2742,8 +3387,11 @@
       <c r="C215" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>71</v>
       </c>
@@ -2753,8 +3401,11 @@
       <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>72</v>
       </c>
@@ -2763,6 +3414,9 @@
       </c>
       <c r="C217" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D217" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
